--- a/sd-swagger/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/sd-swagger/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T11:06:51+00:00</t>
+    <t>2024-03-15T13:27:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-swagger/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/sd-swagger/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T13:27:56+00:00</t>
+    <t>2024-03-15T13:59:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-swagger/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/sd-swagger/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T13:59:29+00:00</t>
+    <t>2024-03-15T17:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -234,6 +234,12 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: ExerciceProfessionnel du Modèle exposition ROR V3</t>
+  </si>
+  <si>
+    <t>Mapping: SituationOperationnelle du Modèle exposition ROR V3</t>
+  </si>
+  <si>
     <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
@@ -244,12 +250,6 @@
   </si>
   <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: ExerciceProfessionnel du Modèle exposition ROR V3</t>
-  </si>
-  <si>
-    <t>Mapping: SituationOperationnelle du Modèle exposition ROR V3</t>
   </si>
   <si>
     <t/>
@@ -275,6 +275,12 @@
 dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
+    <t>ExerciceProfessionnel</t>
+  </si>
+  <si>
+    <t>SituationOperationnelle</t>
+  </si>
+  <si>
     <t>PRD (as one example)</t>
   </si>
   <si>
@@ -282,12 +288,6 @@
   </si>
   <si>
     <t>ServiceSiteProvider</t>
-  </si>
-  <si>
-    <t>ExerciceProfessionnel</t>
-  </si>
-  <si>
-    <t>SituationOperationnelle</t>
   </si>
   <si>
     <t>PractitionerRole.id</t>
@@ -342,10 +342,10 @@
 </t>
   </si>
   <si>
+    <t>metadonnee</t>
+  </si>
+  <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>metadonnee</t>
   </si>
   <si>
     <t>PractitionerRole.meta.id</t>
@@ -905,6 +905,9 @@
     <t>Often, specific identities are assigned for the agent.</t>
   </si>
   <si>
+    <t>identifiantSituationOperationnelle</t>
+  </si>
+  <si>
     <t>PRD-7 (or XCN.1)</t>
   </si>
   <si>
@@ -915,9 +918,6 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>identifiantSituationOperationnelle</t>
   </si>
   <si>
     <t>PractitionerRole.active</t>
@@ -1003,10 +1003,10 @@
 ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
+    <t>Professionnel</t>
+  </si>
+  <si>
     <t>.player</t>
-  </si>
-  <si>
-    <t>Professionnel</t>
   </si>
   <si>
     <t>PractitionerRole.organization</t>
@@ -1043,13 +1043,13 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J229-ProfessionSante-ROR/FHIR/JDV-J229-ProfessionSante-ROR</t>
   </si>
   <si>
+    <t>profession</t>
+  </si>
+  <si>
     <t>PRD-1 / STF-18  / PRA-3  / PRT-4  / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17</t>
   </si>
   <si>
     <t>.code</t>
-  </si>
-  <si>
-    <t>profession</t>
   </si>
   <si>
     <t>PractitionerRole.specialty</t>
@@ -1264,13 +1264,13 @@
     <t>The list of healthcare services that this worker provides for this role's Organization/Location(s).</t>
   </si>
   <si>
+    <t>OffreOperationnelle</t>
+  </si>
+  <si>
     <t>EDU-2 / AFF-3</t>
   </si>
   <si>
     <t>.player.QualifiedEntity[@classCode = 'QUAL'].code</t>
-  </si>
-  <si>
-    <t>OffreOperationnelle</t>
   </si>
   <si>
     <t>PractitionerRole.telecom</t>
@@ -1293,6 +1293,9 @@
 cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
   </si>
   <si>
+    <t>telecommunication</t>
+  </si>
+  <si>
     <t>XTN</t>
   </si>
   <si>
@@ -1300,9 +1303,6 @@
   </si>
   <si>
     <t>ContactPoint</t>
-  </si>
-  <si>
-    <t>telecommunication</t>
   </si>
   <si>
     <t>PractitionerRole.telecom.id</t>
@@ -1411,6 +1411,9 @@
     <t>ContactPoint.value</t>
   </si>
   <si>
+    <t>adresseTelecom</t>
+  </si>
+  <si>
     <t>XTN.1 (or XTN.12)</t>
   </si>
   <si>
@@ -1418,9 +1421,6 @@
   </si>
   <si>
     <t>./Value</t>
-  </si>
-  <si>
-    <t>adresseTelecom</t>
   </si>
   <si>
     <t>PractitionerRole.telecom.use</t>
@@ -1509,10 +1509,10 @@
     <t>More detailed availability information may be provided in associated Schedule/Slot resources.</t>
   </si>
   <si>
+    <t>horaire</t>
+  </si>
+  <si>
     <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>horaire</t>
   </si>
   <si>
     <t>PractitionerRole.availableTime.id</t>
@@ -2069,12 +2069,12 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="85.47265625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="78.58203125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="194.47265625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="65.40234375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="67.484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="65.40234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="67.484375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="85.47265625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="78.58203125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="194.47265625" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2314,13 +2314,13 @@
         <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" hidden="true">
@@ -2425,10 +2425,10 @@
         <v>78</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AM3" t="s" s="2">
         <v>78</v>
@@ -2437,10 +2437,10 @@
         <v>78</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" hidden="true">
@@ -2543,7 +2543,7 @@
         <v>105</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>106</v>
@@ -2552,13 +2552,13 @@
         <v>78</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" hidden="true">
@@ -2664,13 +2664,13 @@
         <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN5" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN5" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO5" t="s" s="2">
         <v>78</v>
@@ -2784,13 +2784,13 @@
         <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>78</v>
@@ -2904,13 +2904,13 @@
         <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN7" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN7" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>78</v>
@@ -3021,22 +3021,22 @@
         <v>105</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AL8" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AM8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN8" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AM8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN8" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO8" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" hidden="true">
@@ -3144,13 +3144,13 @@
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN9" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN9" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>78</v>
@@ -3264,13 +3264,13 @@
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN10" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>78</v>
@@ -3381,16 +3381,16 @@
         <v>105</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -3501,16 +3501,16 @@
         <v>105</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>78</v>
@@ -3621,22 +3621,22 @@
         <v>105</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AM13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO13" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" hidden="true">
@@ -3744,13 +3744,13 @@
         <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>78</v>
@@ -3864,13 +3864,13 @@
         <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>78</v>
@@ -3984,13 +3984,13 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>78</v>
@@ -4104,13 +4104,13 @@
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>78</v>
@@ -4342,7 +4342,7 @@
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
@@ -4354,7 +4354,7 @@
         <v>78</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" hidden="true">
@@ -4458,9 +4458,7 @@
       <c r="AJ20" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="AK20" s="2"/>
       <c r="AL20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4470,7 +4468,9 @@
       <c r="AN20" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AO20" s="2"/>
+      <c r="AO20" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AP20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4580,13 +4580,13 @@
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -4698,13 +4698,13 @@
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>78</v>
@@ -4936,13 +4936,13 @@
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>78</v>
@@ -5054,19 +5054,19 @@
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>106</v>
+        <v>243</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>243</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" hidden="true">
@@ -5174,13 +5174,13 @@
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>78</v>
@@ -5292,13 +5292,13 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>78</v>
@@ -5412,13 +5412,13 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -5532,13 +5532,13 @@
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>78</v>
@@ -5650,19 +5650,19 @@
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>106</v>
+        <v>254</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>254</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" hidden="true">
@@ -5770,13 +5770,13 @@
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>78</v>
@@ -5888,13 +5888,13 @@
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>78</v>
@@ -6008,13 +6008,13 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>78</v>
@@ -6128,13 +6128,13 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>78</v>
@@ -6246,19 +6246,19 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>264</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" hidden="true">
@@ -6608,13 +6608,13 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>78</v>
@@ -6725,19 +6725,19 @@
         <v>105</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>289</v>
@@ -6849,22 +6849,22 @@
         <v>105</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AM40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AP40" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="41" hidden="true">
@@ -6971,22 +6971,22 @@
         <v>305</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AP41" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="42" hidden="true">
@@ -7091,19 +7091,19 @@
         <v>315</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>316</v>
+        <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>317</v>
+        <v>78</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>78</v>
@@ -7214,13 +7214,13 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -7334,16 +7334,16 @@
         <v>329</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AO44" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>78</v>
@@ -7449,19 +7449,19 @@
         <v>105</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AO45" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>78</v>
@@ -7569,19 +7569,19 @@
         <v>105</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AO46" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>78</v>
@@ -7689,19 +7689,19 @@
         <v>105</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AO47" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>78</v>
@@ -7809,19 +7809,19 @@
         <v>105</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AO48" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>78</v>
@@ -7929,19 +7929,19 @@
         <v>105</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>78</v>
@@ -8049,19 +8049,19 @@
         <v>105</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>78</v>
@@ -8169,19 +8169,19 @@
         <v>105</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>78</v>
@@ -8289,19 +8289,19 @@
         <v>105</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>78</v>
@@ -8409,19 +8409,19 @@
         <v>105</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AO53" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>78</v>
@@ -8529,19 +8529,19 @@
         <v>105</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>78</v>
@@ -8649,19 +8649,19 @@
         <v>105</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>78</v>
@@ -8772,19 +8772,19 @@
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AP56" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="57" hidden="true">
@@ -8889,22 +8889,22 @@
         <v>315</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AM57" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AN57" t="s" s="2">
-        <v>78</v>
+        <v>404</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>404</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" hidden="true">
@@ -9009,22 +9009,22 @@
         <v>410</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AN58" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO58" t="s" s="2">
-        <v>78</v>
+        <v>414</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>414</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" hidden="true">
@@ -9130,13 +9130,13 @@
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>78</v>
@@ -9725,19 +9725,19 @@
         <v>105</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>78</v>
@@ -9847,22 +9847,22 @@
         <v>105</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AL65" t="s" s="2">
+      <c r="AM65" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AN65" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO65" t="s" s="2">
-        <v>78</v>
+        <v>452</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>452</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" hidden="true">
@@ -9969,19 +9969,19 @@
         <v>105</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AO66" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>78</v>
@@ -10089,16 +10089,16 @@
         <v>105</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AN67" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>78</v>
@@ -10209,19 +10209,19 @@
         <v>305</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AM68" t="s" s="2">
+      <c r="AO68" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>78</v>
@@ -10338,13 +10338,13 @@
         <v>78</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>482</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" hidden="true">
@@ -10450,13 +10450,13 @@
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>78</v>
@@ -10570,13 +10570,13 @@
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>78</v>
@@ -11052,13 +11052,13 @@
         <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>78</v>
@@ -11172,13 +11172,13 @@
         <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>481</v>
+        <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>78</v>
@@ -11290,13 +11290,13 @@
         <v>78</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>481</v>
+        <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>78</v>
@@ -11410,19 +11410,19 @@
         <v>78</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>481</v>
+        <v>518</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>518</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" hidden="true">
@@ -11530,19 +11530,19 @@
         <v>78</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>481</v>
+        <v>522</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>522</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" hidden="true">
@@ -11648,13 +11648,13 @@
         <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>481</v>
+        <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>78</v>
@@ -11766,13 +11766,13 @@
         <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>78</v>
@@ -11886,13 +11886,13 @@
         <v>78</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>78</v>
@@ -12008,13 +12008,13 @@
         <v>78</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>78</v>
@@ -12128,13 +12128,13 @@
         <v>78</v>
       </c>
       <c r="AL84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>78</v>
@@ -12245,16 +12245,16 @@
         <v>305</v>
       </c>
       <c r="AK85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AL85" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AN85" t="s" s="2">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>78</v>
@@ -12368,13 +12368,13 @@
         <v>78</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>481</v>
+        <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>78</v>
@@ -12490,13 +12490,13 @@
         <v>78</v>
       </c>
       <c r="AL87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>78</v>
